--- a/medicine/Pharmacie/Agastache/Agastache.xlsx
+++ b/medicine/Pharmacie/Agastache/Agastache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache (les agastaches en français) est un genre de plantes herbacées vivaces, de la famille des Lamiacées (Labiées), sous-famille des Nepetoideae (Népétoïdées), tribu des Mentheae, comprenant une trentaine d'espèces, dont beaucoup sont cultivées comme plantes ornementales, aromatiques ou condimentaires.
 La plupart d'entre elles sont très appréciées des abeilles et autres insectes pollinisateurs.
@@ -514,7 +526,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plantes herbacées, vivaces, buissonnantes
 Tige : de 30 cm à 4 m selon l'espèce.
@@ -553,10 +567,12 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les agastaches s'hybrident très facilement.
-Il en existe environ 30 espèces[1], (mais plusieurs dizaines de variétés et cultivars) dont les plus communes sont :
+Il en existe environ 30 espèces, (mais plusieurs dizaines de variétés et cultivars) dont les plus communes sont :
 Agastache astromontanum
 Agastache aurantiaca : (50 cm à 70 cm), agastache doré.
 Agastache breviflora (Gray) Epling : (80 cm), rouge. Arizona et Nouveau-Mexique.
@@ -607,7 +623,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agastaches sont des plantes vivaces généralement très rustiques.
 Elles savent s'adapter à la plupart des types de sols (y compris calcaires ou argileux) à condition qu'ils soient correctement drainés. Elles préfèrent une exposition ensoleillée ou semi-ombrée et résistent bien à la sécheresse.
@@ -641,7 +659,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces d'agastaches sont originaires de Chine, du Japon et d'Amérique du Nord.
 </t>
